--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souno\Desktop\PJava\cerebro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9AB115C-F4AD-4A65-9E37-4E87026D8CB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725366F-1EC9-4AA1-B4A6-79168232E674}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{8F012CC4-E371-435F-9C4F-86A0D373DDBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>chamado</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Shphya</t>
-  </si>
-  <si>
-    <t>a1001</t>
-  </si>
-  <si>
-    <t>a1002</t>
   </si>
   <si>
     <t>a01/08/2018</t>
@@ -413,7 +407,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,29 +431,29 @@
         <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
